--- a/RevE/BOM.xlsx
+++ b/RevE/BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="183">
   <si>
     <t>Name</t>
   </si>
@@ -25,24 +25,15 @@
     <t>Pattern</t>
   </si>
   <si>
-    <t>C101, C102, C104, C108, C110, C113, C117, C118, C208, C209, C502</t>
-  </si>
-  <si>
     <t>CAP_0805</t>
   </si>
   <si>
     <t>10u</t>
   </si>
   <si>
-    <t>C103, C105, C112, C114, C115, C116, C202, C206, C207, C210, C301</t>
-  </si>
-  <si>
     <t>1u</t>
   </si>
   <si>
-    <t>C106, C109, C201, C203, C204, C205</t>
-  </si>
-  <si>
     <t>CAP_0603</t>
   </si>
   <si>
@@ -193,9 +184,6 @@
     <t>TO-220</t>
   </si>
   <si>
-    <t>R1, R302, R304, R305, R306, R307</t>
-  </si>
-  <si>
     <t>opt</t>
   </si>
   <si>
@@ -211,9 +199,6 @@
     <t>49k9</t>
   </si>
   <si>
-    <t>R104, R106, R112, R113, R202, R203, R204, R206, R207, R208, R209, R211, R402, R403, R504, R505</t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
@@ -223,15 +208,9 @@
     <t>464k</t>
   </si>
   <si>
-    <t>R107, R111</t>
-  </si>
-  <si>
     <t>24k9</t>
   </si>
   <si>
-    <t>R109</t>
-  </si>
-  <si>
     <t>6k04</t>
   </si>
   <si>
@@ -247,27 +226,12 @@
     <t>1k</t>
   </si>
   <si>
-    <t>R212, R213, R501, R502</t>
-  </si>
-  <si>
     <t>24r9</t>
   </si>
   <si>
     <t>R301, R303</t>
   </si>
   <si>
-    <t>R401</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R503</t>
-  </si>
-  <si>
-    <t>4k7</t>
-  </si>
-  <si>
     <t>T101, T102</t>
   </si>
   <si>
@@ -280,9 +244,6 @@
     <t>SRF1260</t>
   </si>
   <si>
-    <t>TP101, TP102, TP103, TP201, TP202, TP203, TP204, TP205, TP206, TP207, TP208, TP401, TP402, TP501, TP502, TP503</t>
-  </si>
-  <si>
     <t>TESTPOINT</t>
   </si>
   <si>
@@ -439,12 +400,6 @@
     <t>RES SMD 24.9 OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>RES SMD 10K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>RES SMD 4.7K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
     <t>Bourns</t>
   </si>
   <si>
@@ -508,12 +463,6 @@
     <t>ERJ-3EKF24R9V</t>
   </si>
   <si>
-    <t>ERJ-3EKF1002V</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF4701V</t>
-  </si>
-  <si>
     <t>ERJ-3GEY0R00V</t>
   </si>
   <si>
@@ -560,6 +509,60 @@
   </si>
   <si>
     <t>CAP CER 1UF 35V X5R 0805</t>
+  </si>
+  <si>
+    <t>C103, C105, C112, C114, C115, C116, C202, C206, C207, C210, C301, C401</t>
+  </si>
+  <si>
+    <t>C106, C109, C201, C203, C204, C205, C403</t>
+  </si>
+  <si>
+    <t>R107, R111, R402</t>
+  </si>
+  <si>
+    <t>R104, R106, R112, R113, R202, R203, R204, R206, R207, R208, R209, R211, R401, R403, R404, R406</t>
+  </si>
+  <si>
+    <t>R109, R405</t>
+  </si>
+  <si>
+    <t>R1, R302, R304, R305, R306, R307, R501, R502, R503, R504, R505</t>
+  </si>
+  <si>
+    <t>R212, R213</t>
+  </si>
+  <si>
+    <t>R407</t>
+  </si>
+  <si>
+    <t>18r2</t>
+  </si>
+  <si>
+    <t>RES SMD 18.2 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF18R2V</t>
+  </si>
+  <si>
+    <t>U401</t>
+  </si>
+  <si>
+    <t>LM321MF</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>LM321MF/NOPB</t>
+  </si>
+  <si>
+    <t>TP101, TP102, TP103, TP201, TP202, TP203, TP204, TP205, TP206, TP207, TP208, TP501, TP502, TP503</t>
+  </si>
+  <si>
+    <t>C101, C102, C104, C108, C110, C113, C117, C118, C208, C209</t>
+  </si>
+  <si>
+    <t>C402, C502</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1060,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1066,6 +1069,21 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1408,30 +1426,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1440,1100 +1458,1169 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
+        <v>117</v>
+      </c>
+      <c r="F2" s="11">
+        <v>10</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="J2" s="2">
+        <f>SUM(F2:F6,F9:F10,F12,F25,F28:F39,F41:F46)</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>113</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
+        <v>164</v>
+      </c>
+      <c r="F3" s="11">
+        <v>12</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="J3" s="2">
+        <f>SUM(F14:F15,F18:F22)</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+        <v>113</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4">
+        <v>163</v>
+      </c>
+      <c r="F4" s="11">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5">
+        <v>116</v>
+      </c>
+      <c r="F5" s="11">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>9</v>
+      <c r="G5" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+        <v>113</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6">
+        <v>156</v>
+      </c>
+      <c r="F6" s="11">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
+      <c r="G6" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>114</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="3">
+      <c r="F7" s="11">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="11">
         <v>1</v>
       </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8">
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="I9" s="4"/>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13"/>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>167</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J13" s="2"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
+        <v>113</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="F14" s="16">
+        <v>6</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
+        <v>113</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16">
+        <v>114</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="16">
+        <v>2</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>61300411121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="F18" s="16">
         <v>4</v>
       </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" s="3">
-        <v>61300411121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18">
-        <v>22272031</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="G18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
+        <v>113</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="15">
+        <v>22272031</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>168</v>
+        <v>101</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20">
+        <v>113</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="F20" s="16">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
-        <v>28</v>
+      <c r="G20" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21">
+        <v>113</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="F21" s="16">
         <v>2</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
+      <c r="G21" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>49</v>
+        <v>113</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="F22" s="16">
+        <v>2</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23">
+        <v>114</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="16">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
-        <v>52</v>
+      <c r="G23" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>55</v>
+        <v>114</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J24" s="2"/>
+        <v>154</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
+        <v>114</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>170</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="20">
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J27" s="2"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
+        <v>113</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28">
-        <v>5</v>
+        <v>136</v>
+      </c>
+      <c r="F28" s="20">
+        <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
+        <v>113</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="F29" s="20">
+        <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
+        <v>113</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
+        <v>20</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
+        <v>121</v>
+      </c>
+      <c r="F30" s="20">
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31">
+        <v>122</v>
+      </c>
+      <c r="F31" s="20">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
+        <v>113</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
+        <v>20</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="F32" s="20">
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
+        <v>113</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" t="s">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="F33" s="20">
+        <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
+        <v>113</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s">
-        <v>76</v>
+        <v>20</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34">
+        <v>125</v>
+      </c>
+      <c r="F34" s="20">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
+      <c r="F35" s="20">
+        <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
+        <v>113</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36">
+        <v>127</v>
+      </c>
+      <c r="F36" s="20">
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
+        <v>113</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" t="s">
-        <v>81</v>
+        <v>20</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="F37" s="20">
+        <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" t="s">
-        <v>82</v>
+        <v>113</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" t="s">
-        <v>83</v>
+        <v>20</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38">
+        <v>174</v>
+      </c>
+      <c r="F38" s="20">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>90</v>
+        <v>114</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="9">
+        <v>14</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41">
+        <v>113</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="9">
         <v>1</v>
       </c>
-      <c r="G41" t="s">
-        <v>93</v>
+      <c r="G41" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" t="s">
-        <v>95</v>
+        <v>113</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42">
+      <c r="F42" s="9">
         <v>1</v>
       </c>
-      <c r="G42" t="s">
-        <v>96</v>
+      <c r="G42" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="H42" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43">
+        <v>113</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="9">
         <v>1</v>
       </c>
-      <c r="G43" t="s">
-        <v>55</v>
+      <c r="G43" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44">
+        <v>113</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="9">
         <v>1</v>
       </c>
-      <c r="G44" t="s">
-        <v>101</v>
+      <c r="G44" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="9">
         <v>1</v>
       </c>
-      <c r="G45" t="s">
-        <v>104</v>
+      <c r="G45" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46">
+        <v>113</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="9">
         <v>1</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="G46" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47">
+        <v>114</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="9">
         <v>1</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9"/>
       <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="H49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
